--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301406A9-16D8-294C-87AC-58F74BCFEEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC695B5E-88C2-2641-8CBA-413A59B54114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27540" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$AH$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AH$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AH$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AH$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AH$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AH$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AH$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$AH$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$AH$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -89,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -569,6 +550,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
   </si>
 </sst>
 </file>
@@ -981,18 +965,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,12 +1002,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1053,6 +1019,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2512,13 +2496,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>335</v>
-    <v>233.01</v>
-    <v>0.4879</v>
-    <v>-5.78</v>
-    <v>-1.7330000000000002E-2</v>
-    <v>0.11</v>
-    <v>3.3559999999999997E-4</v>
+    <v>354.46</v>
+    <v>243.17</v>
+    <v>0.49199999999999999</v>
+    <v>-1.73</v>
+    <v>-5.0629999999999998E-3</v>
+    <v>0.18</v>
+    <v>5.2950000000000002E-4</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -2526,25 +2510,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>335</v>
+    <v>346</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45033.991717650002</v>
+    <v>45068.978117372659</v>
     <v>0</v>
-    <v>327.08999999999997</v>
-    <v>84422349956</v>
+    <v>337.95</v>
+    <v>87559817452</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>335</v>
-    <v>26.016200000000001</v>
-    <v>333.52</v>
-    <v>327.74</v>
-    <v>327.85</v>
-    <v>257589400</v>
+    <v>344.06</v>
+    <v>27.220300000000002</v>
+    <v>341.7</v>
+    <v>339.97</v>
+    <v>340.15</v>
+    <v>257551600</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>1044932</v>
-    <v>1094915</v>
+    <v>961754</v>
+    <v>1081504</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -3132,10 +3116,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ106" sqref="AQ106"/>
+      <selection pane="bottomRight" activeCell="AJ24" sqref="AJ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3483,7 +3467,7 @@
         <v>8930700000</v>
       </c>
       <c r="AI3" s="28">
-        <v>9681000000</v>
+        <v>9700000000</v>
       </c>
       <c r="AJ3" s="28">
         <v>10330000000</v>
@@ -3528,7 +3512,7 @@
         <v>6.3421052631578947</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AR4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>-0.29749103942652333</v>
       </c>
       <c r="G4" s="15">
@@ -3645,11 +3629,11 @@
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>8.4013571164634371E-2</v>
+        <v>8.6141063970349485E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7038529077574571E-2</v>
+        <v>6.4948453608247414E-2</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="0"/>
@@ -4133,7 +4117,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AH9" si="1">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
@@ -4622,7 +4606,7 @@
         <v>2.7826086956521738</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AH13" si="2">C12/C3</f>
         <v>2.75</v>
       </c>
       <c r="D13" s="15">
@@ -5095,18 +5079,18 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>9.4530495880502095</v>
+        <v>9.8043621946767896</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>25.413109559301624</v>
+        <v>26.357560942805538</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>21.507783031692654</v>
+        <v>22.307097078365434</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5210,7 +5194,7 @@
         <v>54800000</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5316,8 +5300,11 @@
       <c r="AN18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AO18" s="18" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5424,8 +5411,12 @@
         <f>AH40-AH56-AH61</f>
         <v>9921300000</v>
       </c>
+      <c r="AO19" s="31">
+        <f>AP101/AI3</f>
+        <v>9.0267853043298967</v>
+      </c>
     </row>
-    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5443,7 +5434,7 @@
         <v>-2.0526315789473681</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AM20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AH20" si="3">(F19/E19)-1</f>
         <v>-3.35</v>
       </c>
       <c r="G20" s="15">
@@ -5559,7 +5550,7 @@
         <v>0.52030848329048851</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5663,7 +5654,7 @@
         <v>0.49669999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5767,7 +5758,7 @@
         <v>4307400000</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5871,7 +5862,7 @@
         <v>0.48230000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5975,7 +5966,7 @@
         <v>-75000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6079,7 +6070,7 @@
         <v>4232400000</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6183,7 +6174,7 @@
         <v>0.47389999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6287,7 +6278,7 @@
         <v>910400000</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6391,7 +6382,7 @@
         <v>3322000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -6409,7 +6400,7 @@
         <v>-1.2352941176470589</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AM29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AH29" si="4">(F28/E28)-1</f>
         <v>-9.8000000000000007</v>
       </c>
       <c r="G29" s="15">
@@ -6525,7 +6516,7 @@
         <v>0.41838520985440408</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6629,7 +6620,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +6724,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7055,7 +7046,7 @@
         <v>0.12164582818987402</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AM35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AH35" si="5">(D34-C34)/C34</f>
         <v>0.66165407206173499</v>
       </c>
       <c r="E35" s="22">
@@ -11760,7 +11751,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AH80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -12203,10 +12194,10 @@
       <c r="AH83" s="1">
         <v>-136400000</v>
       </c>
-      <c r="AO83" s="33" t="s">
+      <c r="AO83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AP83" s="34"/>
+      <c r="AP83" s="63"/>
     </row>
     <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12311,10 +12302,10 @@
       <c r="AH84" s="1">
         <v>120800000</v>
       </c>
-      <c r="AO84" s="35" t="s">
+      <c r="AO84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AP84" s="36"/>
+      <c r="AP84" s="65"/>
     </row>
     <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12752,10 +12743,10 @@
       <c r="AH88" s="1">
         <v>-204700000</v>
       </c>
-      <c r="AO88" s="37" t="s">
+      <c r="AO88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AP88" s="38">
+      <c r="AP88" s="34">
         <f>AP85/(AP86+AP87)</f>
         <v>6.3929071395240317E-2</v>
       </c>
@@ -12765,7 +12756,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AH89" si="7">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
@@ -13118,10 +13109,10 @@
       <c r="AH91" s="1">
         <v>-692700000</v>
       </c>
-      <c r="AO91" s="37" t="s">
+      <c r="AO91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AP91" s="38">
+      <c r="AP91" s="34">
         <f>AP89/AP90</f>
         <v>0.21510254229278897</v>
       </c>
@@ -13229,10 +13220,10 @@
       <c r="AH92" s="1">
         <v>920000000</v>
       </c>
-      <c r="AO92" s="39" t="s">
+      <c r="AO92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AP92" s="40">
+      <c r="AP92" s="36">
         <f>AP88*(1-AP91)</f>
         <v>5.0177765611706907E-2</v>
       </c>
@@ -13340,10 +13331,10 @@
       <c r="AH93" s="1">
         <v>-343700000</v>
       </c>
-      <c r="AO93" s="35" t="s">
+      <c r="AO93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AP93" s="36"/>
+      <c r="AP93" s="65"/>
     </row>
     <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13451,7 +13442,7 @@
       <c r="AO94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AP94" s="41">
+      <c r="AP94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13558,12 +13549,12 @@
       <c r="AH95" s="1">
         <v>-85500000</v>
       </c>
-      <c r="AO95" s="42" t="s">
+      <c r="AO95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AP95" s="43" cm="1">
+      <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.4879</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13672,7 +13663,7 @@
       <c r="AO96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AP96" s="41">
+      <c r="AP96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13779,12 +13770,12 @@
       <c r="AH97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO97" s="39" t="s">
+      <c r="AO97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AP97" s="40">
+      <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>6.1954095000000001E-2</v>
+        <v>6.2130600000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13890,10 +13881,10 @@
       <c r="AH98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO98" s="35" t="s">
+      <c r="AO98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AP98" s="36"/>
+      <c r="AP98" s="65"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14109,12 +14100,12 @@
       <c r="AH100" s="10">
         <v>-67700000</v>
       </c>
-      <c r="AO100" s="37" t="s">
+      <c r="AO100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AP100" s="38">
+      <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>1.0051647791789152E-2</v>
+        <v>9.6949662486111154E-3</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14220,12 +14211,12 @@
       <c r="AH101" s="1">
         <v>-29200000</v>
       </c>
-      <c r="AO101" s="42" t="s">
+      <c r="AO101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AP101" s="44" cm="1">
+      <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>84422349956</v>
+        <v>87559817452</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14331,12 +14322,12 @@
       <c r="AH102" s="10">
         <v>3711900000</v>
       </c>
-      <c r="AO102" s="37" t="s">
+      <c r="AO102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AP102" s="38">
+      <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.98994835220821087</v>
+        <v>0.9903050337513889</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14442,12 +14433,12 @@
       <c r="AH103" s="1">
         <v>6800100000</v>
       </c>
-      <c r="AO103" s="39" t="s">
+      <c r="AO103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AP103" s="45">
+      <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>85279549956</v>
+        <v>88417017452</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14553,10 +14544,10 @@
       <c r="AH104" s="11">
         <v>10512000000</v>
       </c>
-      <c r="AO104" s="35" t="s">
+      <c r="AO104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AP104" s="36"/>
+      <c r="AP104" s="65"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14584,7 +14575,7 @@
         <v>0.28915662650602414</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AM105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AH105" si="8">(H106/G106)-1</f>
         <v>1.0700934579439254</v>
       </c>
       <c r="I105" s="15">
@@ -14702,7 +14693,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.1835723484708789E-2</v>
+        <v>6.2014717674030259E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14808,35 +14799,35 @@
       <c r="AH106" s="1">
         <v>3925200000</v>
       </c>
-      <c r="AI106" s="46">
+      <c r="AI106" s="42">
         <f>AH106*(1+$AP$106)</f>
-        <v>4222233038.1522031</v>
-      </c>
-      <c r="AJ106" s="46">
+        <v>4222262412.2579613</v>
+      </c>
+      <c r="AJ106" s="42">
         <f t="shared" ref="AJ106:AM106" si="9">AI106*(1+$AP$106)</f>
-        <v>4541743561.7201624</v>
-      </c>
-      <c r="AK106" s="46">
+        <v>4541806755.8255424</v>
+      </c>
+      <c r="AK106" s="42">
         <f t="shared" si="9"/>
-        <v>4885432517.351964</v>
-      </c>
-      <c r="AL106" s="46">
+        <v>4885534482.0293131</v>
+      </c>
+      <c r="AL106" s="42">
         <f t="shared" si="9"/>
-        <v>5255129568.0287752</v>
-      </c>
-      <c r="AM106" s="46">
+        <v>5255275809.4523935</v>
+      </c>
+      <c r="AM106" s="42">
         <f t="shared" si="9"/>
-        <v>5652802833.4611254</v>
-      </c>
-      <c r="AN106" s="47" t="s">
+        <v>5652999469.1479092</v>
+      </c>
+      <c r="AN106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AO106" s="48" t="s">
+      <c r="AO106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AP106" s="49">
+      <c r="AP106" s="45">
         <f>(SUM(AI4:AM4)/5)</f>
-        <v>7.5673351205595374E-2</v>
+        <v>7.5680834672872968E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14874,151 +14865,151 @@
       <c r="AF107" s="13"/>
       <c r="AG107" s="13"/>
       <c r="AH107" s="13"/>
-      <c r="AI107" s="47"/>
-      <c r="AJ107" s="47"/>
-      <c r="AK107" s="47"/>
-      <c r="AL107" s="47"/>
-      <c r="AM107" s="50">
+      <c r="AI107" s="43"/>
+      <c r="AJ107" s="43"/>
+      <c r="AK107" s="43"/>
+      <c r="AL107" s="43"/>
+      <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>157296297077.01831</v>
-      </c>
-      <c r="AN107" s="51" t="s">
+        <v>156541095542.16425</v>
+      </c>
+      <c r="AN107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AO107" s="52" t="s">
+      <c r="AO107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AP107" s="53">
+      <c r="AP107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI108" s="50">
+      <c r="AI108" s="46">
         <f t="shared" ref="AI108:AK108" si="10">AI107+AI106</f>
-        <v>4222233038.1522031</v>
-      </c>
-      <c r="AJ108" s="50">
+        <v>4222262412.2579613</v>
+      </c>
+      <c r="AJ108" s="46">
         <f t="shared" si="10"/>
-        <v>4541743561.7201624</v>
-      </c>
-      <c r="AK108" s="50">
+        <v>4541806755.8255424</v>
+      </c>
+      <c r="AK108" s="46">
         <f t="shared" si="10"/>
-        <v>4885432517.351964</v>
-      </c>
-      <c r="AL108" s="50">
+        <v>4885534482.0293131</v>
+      </c>
+      <c r="AL108" s="46">
         <f>AL107+AL106</f>
-        <v>5255129568.0287752</v>
-      </c>
-      <c r="AM108" s="50">
+        <v>5255275809.4523935</v>
+      </c>
+      <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>162949099910.47943</v>
-      </c>
-      <c r="AN108" s="51" t="s">
+        <v>162194095011.31216</v>
+      </c>
+      <c r="AN108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AO108" s="54" t="s">
+      <c r="AO108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AP108" s="55">
+      <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.1835723484708789E-2</v>
+        <v>6.2014717674030259E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="56" t="s">
+      <c r="AI109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AJ109" s="57"/>
+      <c r="AJ109" s="61"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI110" s="58" t="s">
+      <c r="AI110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AJ110" s="44">
+      <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>136935163837.17326</v>
+        <v>136268023733.96681</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI111" s="58" t="s">
+      <c r="AI111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AJ111" s="44">
+      <c r="AJ111" s="40">
         <f>AH40</f>
         <v>10778500000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI112" s="58" t="s">
+      <c r="AI112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AJ112" s="44">
+      <c r="AJ112" s="40">
         <f>AP99</f>
         <v>857200000</v>
       </c>
     </row>
     <row r="113" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI113" s="58" t="s">
+      <c r="AI113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AJ113" s="44">
+      <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>146856463837.17328</v>
+        <v>146189323733.9668</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI114" s="58" t="s">
+      <c r="AI114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AJ114" s="59">
+      <c r="AJ114" s="53">
         <f>AH34*(1+(5*AN16))</f>
         <v>265155839.0227125</v>
       </c>
     </row>
     <row r="115" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI115" s="60" t="s">
+      <c r="AI115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AJ115" s="61">
+      <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>553.84963189361997</v>
+        <v>551.33360167657725</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI116" s="58" t="s">
+      <c r="AI116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AJ116" s="62" cm="1">
+      <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>327.74</v>
+        <v>339.97</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI117" s="63" t="s">
+      <c r="AI117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AJ117" s="64">
+      <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>0.6899055101410263</v>
+        <v>0.62171250897601915</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI118" s="63" t="s">
+      <c r="AI118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AJ118" s="65" t="str">
+      <c r="AJ118" s="59" t="str">
         <f>IF(AJ115&gt;AJ116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AI109:AJ109"/>
     <mergeCell ref="AO83:AP83"/>
     <mergeCell ref="AO84:AP84"/>
     <mergeCell ref="AO93:AP93"/>
     <mergeCell ref="AO98:AP98"/>
     <mergeCell ref="AO104:AP104"/>
-    <mergeCell ref="AI109:AJ109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/VRTX" display="ROIC.AI | VRTX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC695B5E-88C2-2641-8CBA-413A59B54114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060D5AB9-455A-3640-A990-D36B2E9B792F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2497,12 +2497,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>354.46</v>
-    <v>243.17</v>
-    <v>0.49199999999999999</v>
-    <v>-1.73</v>
-    <v>-5.0629999999999998E-3</v>
-    <v>0.18</v>
-    <v>5.2950000000000002E-4</v>
+    <v>271.61</v>
+    <v>0.50329999999999997</v>
+    <v>-0.33</v>
+    <v>-9.4979999999999999E-4</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -2510,25 +2508,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>346</v>
+    <v>350.08</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45068.978117372659</v>
+    <v>45104.998828981254</v>
     <v>0</v>
-    <v>337.95</v>
-    <v>87559817452</v>
+    <v>342.63</v>
+    <v>89401311392</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>344.06</v>
-    <v>27.220300000000002</v>
-    <v>341.7</v>
-    <v>339.97</v>
-    <v>340.15</v>
+    <v>348.05</v>
+    <v>27.652000000000001</v>
+    <v>347.45</v>
+    <v>347.12</v>
     <v>257551600</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>961754</v>
-    <v>1081504</v>
+    <v>1258051</v>
+    <v>1504782</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2560,8 +2557,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2582,7 +2577,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2599,7 +2593,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2610,16 +2604,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2685,19 +2676,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2742,9 +2727,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2752,9 +2734,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3116,10 +3095,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ24" sqref="AJ24"/>
+      <selection pane="bottomRight" activeCell="AJ96" sqref="AJ96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5079,15 +5058,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>9.8043621946767896</v>
+        <v>10.010560358314578</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>26.357560942805538</v>
+        <v>26.911893856712823</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>22.307097078365434</v>
+        <v>22.776243603383268</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5413,7 +5392,7 @@
       </c>
       <c r="AO19" s="31">
         <f>AP101/AI3</f>
-        <v>9.0267853043298967</v>
+        <v>9.2166300404123707</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13554,7 +13533,7 @@
       </c>
       <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.49199999999999999</v>
+        <v>0.50329999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13775,7 +13754,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>6.2130600000000001E-2</v>
+        <v>6.2617065E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14105,7 +14084,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>9.6949662486111154E-3</v>
+        <v>9.4971652731686562E-3</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14216,7 +14195,7 @@
       </c>
       <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>87559817452</v>
+        <v>89401311392</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14327,7 +14306,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.9903050337513889</v>
+        <v>0.99050283472683132</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14438,7 +14417,7 @@
       </c>
       <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>88417017452</v>
+        <v>90258511392</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14693,7 +14672,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.2014717674030259E-2</v>
+        <v>6.2498926917826957E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14871,7 +14850,7 @@
       <c r="AL107" s="43"/>
       <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>156541095542.16425</v>
+        <v>154519740486.81348</v>
       </c>
       <c r="AN107" s="47" t="s">
         <v>148</v>
@@ -14902,7 +14881,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>162194095011.31216</v>
+        <v>160172739955.9614</v>
       </c>
       <c r="AN108" s="47" t="s">
         <v>144</v>
@@ -14912,7 +14891,7 @@
       </c>
       <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.2014717674030259E-2</v>
+        <v>6.2498926917826957E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14927,7 +14906,7 @@
       </c>
       <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>136268023733.96681</v>
+        <v>134483334786.89442</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14933,7 @@
       </c>
       <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>146189323733.9668</v>
+        <v>144404634786.89441</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14951,7 @@
       </c>
       <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>551.33360167657725</v>
+        <v>544.60288454943327</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14981,7 +14960,7 @@
       </c>
       <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>339.97</v>
+        <v>347.12</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14990,7 +14969,7 @@
       </c>
       <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>0.62171250897601915</v>
+        <v>0.56891819701957025</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117237B-7547-DE41-84F6-5AA6D0DC75F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EDBC3-5FE9-FD4B-BE74-159FCEEA4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1577,12 +1577,12 @@
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
@@ -1590,16 +1590,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1727,9 +1727,9 @@
     <v>Powered by Refinitiv</v>
     <v>375.93</v>
     <v>282.20999999999998</v>
-    <v>0.45760000000000001</v>
-    <v>-2.75</v>
-    <v>-7.4819999999999999E-3</v>
+    <v>0.45579999999999998</v>
+    <v>-0.91500000000000004</v>
+    <v>-2.5080000000000002E-3</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -1737,24 +1737,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>369.67</v>
+    <v>367.48</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45218.98594138828</v>
+    <v>45219.789867800784</v>
     <v>0</v>
-    <v>361.72460000000001</v>
-    <v>94152983040</v>
+    <v>362.67</v>
+    <v>93916826298</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>367.55</v>
+    <v>365.72</v>
     <v>28.198899999999998</v>
-    <v>367.55</v>
     <v>364.8</v>
+    <v>363.88499999999999</v>
     <v>258094800</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>14</v>
-    <v>1038872</v>
+    <v>740546</v>
+    <v>1068453</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -1907,10 +1907,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -15667,7 +15667,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15716,7 +15716,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>94152983040</v>
+        <v>93916826298</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -15744,7 +15744,7 @@
       </c>
       <c r="I3" s="46">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>159291885373.99057</v>
+        <v>159542951554.71497</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
@@ -15789,14 +15789,14 @@
       </c>
       <c r="I4" s="58">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>136650524670.85867</v>
+        <v>136871932637.82512</v>
       </c>
       <c r="J4" s="55" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-7.4819999999999999E-3</v>
+        <v>-2.5080000000000002E-3</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>212</v>
@@ -15839,14 +15839,14 @@
       </c>
       <c r="I5" s="58">
         <f>I4+G5-G6</f>
-        <v>147119224670.85867</v>
+        <v>147340632637.82513</v>
       </c>
       <c r="J5" s="55" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="62" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>364.8</v>
+        <v>363.88499999999999</v>
       </c>
       <c r="L5" s="53" t="s">
         <v>219</v>
@@ -15864,7 +15864,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="65">
         <f>O20/F10</f>
-        <v>9.5354449098642906</v>
+        <v>9.511527881101884</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>221</v>
@@ -15892,14 +15892,14 @@
       </c>
       <c r="I6" s="67">
         <f>N25</f>
-        <v>6.489531535193728E-2</v>
+        <v>6.4832533735096176E-2</v>
       </c>
       <c r="J6" s="57" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="68">
         <f>I5/G4</f>
-        <v>564.67812271148318</v>
+        <v>565.52793846751172</v>
       </c>
       <c r="L6" s="69" t="s">
         <v>225</v>
@@ -15917,14 +15917,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72">
         <f>O20/F12</f>
-        <v>24.166576755646819</v>
+        <v>24.105961575462011</v>
       </c>
       <c r="B7" s="73" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="74">
         <f>F14/O21</f>
-        <v>4.1803367330011713E-2</v>
+        <v>4.1907631013272724E-2</v>
       </c>
       <c r="D7" s="75" t="s">
         <v>228</v>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="K7" s="81">
         <f>K6/K5-1</f>
-        <v>0.54791152059068859</v>
+        <v>0.55413918811578311</v>
       </c>
       <c r="L7" s="82" t="s">
         <v>231</v>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="O15" s="104" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.45760000000000001</v>
+        <v>0.45579999999999998</v>
       </c>
       <c r="P15" s="49"/>
     </row>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="O17" s="111">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.5026847999999998E-2</v>
+        <v>6.4963884E-2</v>
       </c>
       <c r="P17" s="49"/>
     </row>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="O20" s="115" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>94152983040</v>
+        <v>93916826298</v>
       </c>
       <c r="P20" s="49"/>
     </row>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="O21" s="115">
         <f>O19+O20</f>
-        <v>94920583040</v>
+        <v>94684426298</v>
       </c>
       <c r="P21" s="49"/>
     </row>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="O22" s="116">
         <f>(O19/O21)</f>
-        <v>8.0867602728117421E-3</v>
+        <v>8.106929830087737E-3</v>
       </c>
       <c r="P22" s="49"/>
     </row>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="O23" s="117">
         <f>O20/O21</f>
-        <v>0.99191323972718826</v>
+        <v>0.99189307016991224</v>
       </c>
       <c r="P23" s="49"/>
     </row>
@@ -16544,7 +16544,7 @@
       <c r="M25" s="91"/>
       <c r="N25" s="120">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.489531535193728E-2</v>
+        <v>6.4832533735096176E-2</v>
       </c>
       <c r="O25" s="121"/>
       <c r="P25" s="49"/>

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6EDBC3-5FE9-FD4B-BE74-159FCEEA4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4F60-5CA9-A044-A0F0-FE7653405C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1311,12 +1311,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1337,12 +1331,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
@@ -1497,15 +1485,6 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1514,6 +1493,12 @@
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1532,6 +1517,21 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,13 +1561,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -1577,29 +1579,31 @@
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1727,9 +1731,11 @@
     <v>Powered by Refinitiv</v>
     <v>375.93</v>
     <v>282.20999999999998</v>
-    <v>0.45579999999999998</v>
-    <v>-0.91500000000000004</v>
-    <v>-2.5080000000000002E-3</v>
+    <v>0.45019999999999999</v>
+    <v>-1.76</v>
+    <v>-4.8479999999999999E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -1737,24 +1743,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>367.48</v>
+    <v>365.66</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45219.789867800784</v>
+    <v>45225.991112974218</v>
     <v>0</v>
-    <v>362.67</v>
-    <v>93916826298</v>
+    <v>360.02</v>
+    <v>93244489344</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>365.72</v>
-    <v>28.198899999999998</v>
-    <v>364.8</v>
-    <v>363.88499999999999</v>
+    <v>362.03</v>
+    <v>28.062799999999999</v>
+    <v>363.04</v>
+    <v>361.28</v>
+    <v>361.28</v>
     <v>258094800</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>740546</v>
-    <v>1068453</v>
+    <v>942228</v>
+    <v>1101902</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -1786,6 +1793,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1806,6 +1815,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1822,7 +1832,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1833,13 +1843,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1905,13 +1918,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1956,6 +1975,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1963,6 +1985,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2346,20 +2371,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2584,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2643,7 @@
         <v>2493200000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2677,7 +2702,7 @@
         <v>308600000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2761,7 @@
         <v>308600000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2820,7 @@
         <v>2184600000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>58</v>
       </c>
@@ -2854,7 +2879,7 @@
         <v>87.62</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2913,7 +2938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2972,7 +2997,7 @@
         <v>1048300000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3119,7 +3144,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3266,7 +3291,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3325,7 +3350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -3384,7 +3409,7 @@
         <v>1136300000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -3525,7 +3550,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3584,7 +3609,7 @@
         <v>-25200000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3643,7 +3668,7 @@
         <v>-133500000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3702,7 +3727,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3761,7 +3786,7 @@
         <v>144700000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3820,7 +3845,7 @@
         <v>108300000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3879,7 +3904,7 @@
         <v>1161500000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3938,7 +3963,7 @@
         <v>245800000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -3997,7 +4022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4056,7 +4081,7 @@
         <v>915700000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4115,7 +4140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4174,7 +4199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4233,7 +4258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +4317,7 @@
         <v>915700000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4351,7 +4376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
@@ -4410,7 +4435,7 @@
         <v>915700000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>60</v>
       </c>
@@ -4628,7 +4653,7 @@
         <v>5.2484018771015779E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4687,7 +4712,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4746,7 +4771,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4805,7 +4830,7 @@
         <v>915700000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -4864,7 +4889,7 @@
         <v>257700000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -4923,7 +4948,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -4982,7 +5007,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5041,7 +5066,7 @@
         <v>260400000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -5100,7 +5125,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -5159,7 +5184,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -5218,7 +5243,7 @@
         <v>1177700000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -5277,7 +5302,7 @@
         <v>48.68</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -5336,7 +5361,7 @@
         <v>1136300000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -5395,7 +5420,7 @@
         <v>1136300000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5454,7 +5479,7 @@
         <v>519417</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -5513,7 +5538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -5572,7 +5597,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5631,7 +5656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -5690,7 +5715,7 @@
         <v>13872900000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -5749,7 +5774,7 @@
         <v>11236300000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -5808,7 +5833,7 @@
         <v>10151100000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -5867,7 +5892,7 @@
         <v>1085200000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -5926,7 +5951,7 @@
         <v>1556200000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
@@ -5985,7 +6010,7 @@
         <v>1556200000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -6044,7 +6069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -6103,7 +6128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -6162,7 +6187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -6221,7 +6246,7 @@
         <v>603500000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -6280,7 +6305,7 @@
         <v>71800000</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -6339,7 +6364,7 @@
         <v>398900000</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6398,7 +6423,7 @@
         <v>132800000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -6457,7 +6482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -6516,7 +6541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -6575,7 +6600,7 @@
         <v>476900000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -6634,7 +6659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -6693,7 +6718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -6752,7 +6777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
@@ -6811,7 +6836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -6870,7 +6895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -6929,7 +6954,7 @@
         <v>6476300000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -6988,7 +7013,7 @@
         <v>1446700000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -7047,7 +7072,7 @@
         <v>1446700000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -7106,7 +7131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>89</v>
       </c>
@@ -7165,7 +7190,7 @@
         <v>1357300000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7224,7 +7249,7 @@
         <v>1357300000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -7283,7 +7308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7342,7 +7367,7 @@
         <v>3672300000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -7401,7 +7426,7 @@
         <v>1691600000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -7460,7 +7485,7 @@
         <v>1088000000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -7519,7 +7544,7 @@
         <v>603600000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -7578,7 +7603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -7637,7 +7662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -7696,7 +7721,7 @@
         <v>1980700000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
@@ -7755,7 +7780,7 @@
         <v>20349200000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -7814,7 +7839,7 @@
         <v>2961100000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -7873,7 +7898,7 @@
         <v>363000000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>102</v>
       </c>
@@ -7932,7 +7957,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>103</v>
       </c>
@@ -7991,7 +8016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -8050,7 +8075,7 @@
         <v>2598100000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
@@ -8109,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -8168,7 +8193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>107</v>
       </c>
@@ -8227,7 +8252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
@@ -8286,7 +8311,7 @@
         <v>391000000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -8345,7 +8370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -8404,7 +8429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -8463,7 +8488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
@@ -8522,7 +8547,7 @@
         <v>391000000</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -8581,7 +8606,7 @@
         <v>3352100000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -8640,7 +8665,7 @@
         <v>767600000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -8699,7 +8724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -8758,7 +8783,7 @@
         <v>767600000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>117</v>
       </c>
@@ -8817,7 +8842,7 @@
         <v>759300000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>118</v>
       </c>
@@ -8876,7 +8901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -8935,7 +8960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -8994,7 +9019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -9053,7 +9078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -9112,7 +9137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -9171,7 +9196,7 @@
         <v>759300000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -9230,7 +9255,7 @@
         <v>1526900000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -9289,7 +9314,7 @@
         <v>4879000000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -9348,7 +9373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -9407,7 +9432,7 @@
         <v>7371700000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -9466,7 +9491,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -9525,7 +9550,7 @@
         <v>7369100000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -9584,7 +9609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -9643,7 +9668,7 @@
         <v>8138300000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -9702,7 +9727,7 @@
         <v>-39800000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -9761,7 +9786,7 @@
         <v>15470200000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -9820,7 +9845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
@@ -9879,7 +9904,7 @@
         <v>15470200000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -9938,7 +9963,7 @@
         <v>20349200000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>134</v>
       </c>
@@ -10079,7 +10104,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -10138,7 +10163,7 @@
         <v>767600000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -10197,7 +10222,7 @@
         <v>-10151100000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -10256,7 +10281,7 @@
         <v>-65.62</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -10315,7 +10340,7 @@
         <v>73.849999999999994</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -10374,7 +10399,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10433,7 +10458,7 @@
         <v>135.86000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -10492,7 +10517,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10551,7 +10576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>142</v>
       </c>
@@ -10610,7 +10635,7 @@
         <v>915700000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>143</v>
       </c>
@@ -10669,7 +10694,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>144</v>
       </c>
@@ -10728,7 +10753,7 @@
         <v>-68100000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>145</v>
       </c>
@@ -10875,7 +10900,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -10934,7 +10959,7 @@
         <v>-176600000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -10993,7 +11018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -11052,7 +11077,7 @@
         <v>-10800000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -11111,7 +11136,7 @@
         <v>245400000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11170,7 +11195,7 @@
         <v>-2900000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -11229,7 +11254,7 @@
         <v>-72800000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -11288,7 +11313,7 @@
         <v>-19600000</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -11347,7 +11372,7 @@
         <v>312300000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -11406,7 +11431,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -11465,7 +11490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -11524,7 +11549,7 @@
         <v>1134400000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -11583,7 +11608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -11642,7 +11667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -11701,7 +11726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -11760,7 +11785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -11819,7 +11844,7 @@
         <v>-59600000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -11878,7 +11903,7 @@
         <v>-59600000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -11937,7 +11962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -11996,7 +12021,7 @@
         <v>-244300000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -12055,7 +12080,7 @@
         <v>334900000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -12114,7 +12139,7 @@
         <v>-579200000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -12173,7 +12198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -12232,7 +12257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -12291,7 +12316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -12350,7 +12375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -12409,7 +12434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -12468,7 +12493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -12527,7 +12552,7 @@
         <v>-303900000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -12586,7 +12611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -12645,7 +12670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -12704,7 +12729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
@@ -12763,7 +12788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -12822,7 +12847,7 @@
         <v>-31400000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -12881,7 +12906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
@@ -12940,7 +12965,7 @@
         <v>-31400000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
@@ -12999,7 +13024,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>155</v>
       </c>
@@ -13058,7 +13083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -13117,7 +13142,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -13176,7 +13201,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -13235,7 +13260,7 @@
         <v>847800000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>54</v>
       </c>
@@ -13294,7 +13319,7 @@
         <v>1177700000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>55</v>
       </c>
@@ -13353,7 +13378,7 @@
         <v>48.68</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -13412,7 +13437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -13471,7 +13496,7 @@
         <v>1074800000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>186</v>
       </c>
@@ -15412,7 +15437,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="2"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -15471,7 +15496,7 @@
         <v>1074800000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -15530,7 +15555,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>189</v>
       </c>
@@ -15589,7 +15614,7 @@
         <v>21.78</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>190</v>
       </c>
@@ -15648,12 +15673,9 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15667,7 +15689,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15675,48 +15697,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="e" vm="1">
+    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-    </row>
-    <row r="2" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>93916826298</v>
+        <v>93244489344</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -15744,7 +15766,7 @@
       </c>
       <c r="I3" s="46">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>159542951554.71497</v>
+        <v>161708072886.94641</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
@@ -15752,222 +15774,222 @@
       <c r="K3" s="47"/>
       <c r="L3" s="48"/>
       <c r="M3" s="49"/>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="51"/>
+      <c r="O3" s="120"/>
       <c r="P3" s="49"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52">
+      <c r="A4" s="50">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>10468700000</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <f>Financials!O17*0.01</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="52">
         <f>SUM(C13:E13)/3</f>
         <v>0.52877966874916127</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="54">
         <f>A5*(1+(5*G3))</f>
         <v>260536434.39278027</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="56">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>136871932637.82512</v>
-      </c>
-      <c r="J4" s="55" t="s">
+        <v>138781350188.47372</v>
+      </c>
+      <c r="J4" s="53" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.5080000000000002E-3</v>
+        <v>-4.8479999999999999E-3</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="60"/>
+      <c r="O4" s="122"/>
       <c r="P4" s="49"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" cm="1">
+      <c r="A5" s="54" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>258094800</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="57">
         <f>Financials!O34*0.01</f>
         <v>0.35399999999999998</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="52">
         <f>SUM(C15:E15)/3</f>
         <v>0.46447590556665563</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="54">
         <f>Financials!O56</f>
         <v>11236300000</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="58">
+      <c r="I5" s="56">
         <f>I4+G5-G6</f>
-        <v>147340632637.82513</v>
-      </c>
-      <c r="J5" s="55" t="s">
+        <v>149250050188.47372</v>
+      </c>
+      <c r="J5" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="62" cm="1">
+      <c r="K5" s="58" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>363.88499999999999</v>
-      </c>
-      <c r="L5" s="53" t="s">
+        <v>361.28</v>
+      </c>
+      <c r="L5" s="51" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="49"/>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="60">
         <f>Financials!O21</f>
         <v>47900000</v>
       </c>
       <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65">
+      <c r="A6" s="61">
         <f>O20/F10</f>
-        <v>9.511527881101884</v>
-      </c>
-      <c r="B6" s="53" t="s">
+        <v>9.4434362309094588</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <f>Financials!O190</f>
         <v>0.41200730699631771</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="52">
         <f>Financials!O33/Financials!O126</f>
         <v>0.21750850021331333</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="56">
         <f>Financials!O96+Financials!O105</f>
         <v>767600000</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="63">
         <f>N25</f>
-        <v>6.4832533735096176E-2</v>
-      </c>
-      <c r="J6" s="57" t="s">
+        <v>6.4299212998740737E-2</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>565.52793846751172</v>
-      </c>
-      <c r="L6" s="69" t="s">
+        <v>572.85673129105203</v>
+      </c>
+      <c r="L6" s="65" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="49"/>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="67">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
       <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72">
+      <c r="A7" s="68">
         <f>O20/F12</f>
-        <v>24.105961575462011</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>23.933390488706365</v>
+      </c>
+      <c r="B7" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="74">
-        <f>F14/O21</f>
-        <v>4.1907631013272724E-2</v>
-      </c>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="70">
+        <f>F14/A3</f>
+        <v>4.2554793617466773E-2</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="72">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.20653198093337768</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="73">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>4.9617975203940477E-2</v>
       </c>
-      <c r="H7" s="78" t="s">
+      <c r="H7" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="79">
+      <c r="I7" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>0.55413918811578311</v>
-      </c>
-      <c r="L7" s="82" t="s">
+        <v>0.58563089927771284</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="49"/>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="67">
         <f>Financials!O105</f>
         <v>767600000</v>
       </c>
       <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="83"/>
+      <c r="A8" s="79"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -15980,409 +16002,409 @@
       <c r="K8" s="49"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49"/>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="85">
+      <c r="O8" s="81">
         <f>O5/(O6+O7)</f>
         <v>6.2402292860865037E-2</v>
       </c>
       <c r="P8" s="49"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83">
         <v>2019</v>
       </c>
-      <c r="C9" s="87">
+      <c r="C9" s="83">
         <v>2020</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="83">
         <v>2021</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="83">
         <v>2022</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="84">
         <v>2023</v>
       </c>
-      <c r="G9" s="89">
+      <c r="G9" s="85">
         <v>2024</v>
       </c>
-      <c r="H9" s="89">
+      <c r="H9" s="85">
         <v>2025</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="85">
         <v>2026</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="85">
         <v>2027</v>
       </c>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="70" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="67">
         <f>Financials!O25</f>
         <v>941300000</v>
       </c>
       <c r="P9" s="49"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="89">
         <v>4162821000</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="89">
         <v>6205683000</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="89">
         <v>7574400000</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="89">
         <v>8930700000</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="90">
         <v>9874000000</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="89">
         <v>10505000000</v>
       </c>
-      <c r="H10" s="93">
+      <c r="H10" s="89">
         <v>11398000000</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="89">
         <v>12533000000</v>
       </c>
-      <c r="J10" s="93">
+      <c r="J10" s="89">
         <v>13736000000</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="67">
         <f>Financials!O24</f>
         <v>4306200000</v>
       </c>
       <c r="P10" s="49"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.49073981321800764</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="93">
         <f t="shared" si="0"/>
         <v>0.22055863955667743</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>0.17906368821292773</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0.10562441913847742</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="93">
         <f t="shared" si="0"/>
         <v>6.390520559043944E-2</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="93">
         <f t="shared" si="0"/>
         <v>8.5007139457401237E-2</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="93">
         <f t="shared" si="0"/>
         <v>9.9578873486576569E-2</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="93">
         <f t="shared" si="0"/>
         <v>9.5986595388175111E-2</v>
       </c>
-      <c r="K11" s="99">
+      <c r="K11" s="95">
         <f>SUM(F11:J11)/5</f>
         <v>9.002044661221395E-2</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="70" t="s">
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="100">
+      <c r="O11" s="96">
         <f>O9/O10</f>
         <v>0.21859179787283453</v>
       </c>
       <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="89">
         <v>1176810000</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="89">
         <v>2711647000</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="89">
         <v>2342100000</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="89">
         <v>3322000000</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="90">
         <v>3896000000</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="89">
         <v>4198000000</v>
       </c>
-      <c r="H12" s="93">
+      <c r="H12" s="89">
         <v>4500000000</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="89">
         <v>5020000000</v>
       </c>
-      <c r="J12" s="93">
+      <c r="J12" s="89">
         <v>5560000000</v>
       </c>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="101" t="s">
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="102">
+      <c r="O12" s="98">
         <f>O8*(1-O11)</f>
         <v>4.8761663473021397E-2</v>
       </c>
       <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97">
+      <c r="A13" s="92"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.3042351781511035</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="93">
         <f t="shared" si="1"/>
         <v>-0.13628138175802385</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="93">
         <f t="shared" si="1"/>
         <v>0.41838520985440408</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="94">
         <f t="shared" si="1"/>
         <v>0.17278747742323897</v>
       </c>
-      <c r="G13" s="97">
+      <c r="G13" s="93">
         <f t="shared" si="1"/>
         <v>7.7515400410677726E-2</v>
       </c>
-      <c r="H13" s="97">
+      <c r="H13" s="93">
         <f t="shared" si="1"/>
         <v>7.1939018580276404E-2</v>
       </c>
-      <c r="I13" s="97">
+      <c r="I13" s="93">
         <f t="shared" si="1"/>
         <v>0.11555555555555563</v>
       </c>
-      <c r="J13" s="97">
+      <c r="J13" s="93">
         <f t="shared" si="1"/>
         <v>0.10756972111553775</v>
       </c>
-      <c r="K13" s="99">
+      <c r="K13" s="95">
         <f>SUM(F13:J13)/5</f>
         <v>0.10907343461705729</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="59" t="s">
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="60"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="49"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="89">
         <v>1543233650</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="89">
         <v>3044298981</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="89">
         <v>2461253864</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="89">
         <v>3968212381</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="90">
         <v>3968000000</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="89">
         <v>4269000000</v>
       </c>
-      <c r="H14" s="93">
+      <c r="H14" s="89">
         <v>4880000000</v>
       </c>
-      <c r="I14" s="93">
+      <c r="I14" s="89">
         <v>5491000000</v>
       </c>
-      <c r="J14" s="93">
+      <c r="J14" s="89">
         <v>6200000000</v>
       </c>
-      <c r="K14" s="95" t="s">
+      <c r="K14" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="70" t="s">
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="100">
+      <c r="O14" s="96">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97">
+      <c r="A15" s="99"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>0.97267535022969454</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="93">
         <f t="shared" si="2"/>
         <v>-0.19152032065144919</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="93">
         <f t="shared" si="2"/>
         <v>0.61227268712172145</v>
       </c>
-      <c r="F15" s="98">
+      <c r="F15" s="94">
         <f t="shared" si="2"/>
         <v>-5.3520572894982799E-5</v>
       </c>
-      <c r="G15" s="97">
+      <c r="G15" s="93">
         <f t="shared" si="2"/>
         <v>7.5856854838709742E-2</v>
       </c>
-      <c r="H15" s="97">
+      <c r="H15" s="93">
         <f t="shared" si="2"/>
         <v>0.14312485359568994</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="93">
         <f t="shared" si="2"/>
         <v>0.12520491803278699</v>
       </c>
-      <c r="J15" s="97">
+      <c r="J15" s="93">
         <f t="shared" si="2"/>
         <v>0.12912037880167548</v>
       </c>
-      <c r="K15" s="99">
+      <c r="K15" s="95">
         <f>SUM(F15:J15)/5</f>
         <v>9.4650696939193438E-2</v>
       </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="70" t="s">
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="104" cm="1">
+      <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.45579999999999998</v>
+        <v>0.45019999999999999</v>
       </c>
       <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="105">
+      <c r="B16" s="101">
         <v>0.13469761574490491</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="101">
         <v>0.23113586750763232</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="101">
         <v>0.19472420494039389</v>
       </c>
-      <c r="E16" s="105">
+      <c r="E16" s="101">
         <v>0.22620684413798822</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="70" t="s">
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="100">
+      <c r="O16" s="96">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="49"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="110" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="111">
+      <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.4963884E-2</v>
+        <v>6.4427120000000004E-2</v>
       </c>
       <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="59" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="60"/>
+      <c r="O18" s="122"/>
       <c r="P18" s="49"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16391,24 +16413,24 @@
         <v>Biotechnology &amp; Medical Research</v>
       </c>
       <c r="B19" s="112"/>
-      <c r="C19" s="113" cm="1">
+      <c r="C19" s="123" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1989</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="70" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="115">
+      <c r="O19" s="108">
         <f>O6+O7</f>
         <v>767600000</v>
       </c>
@@ -16423,20 +16445,20 @@
       <c r="C20" s="112"/>
       <c r="D20" s="112"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="70" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="115" cm="1">
+      <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>93916826298</v>
+        <v>93244489344</v>
       </c>
       <c r="P20" s="49"/>
     </row>
@@ -16446,19 +16468,19 @@
       <c r="C21" s="112"/>
       <c r="D21" s="112"/>
       <c r="E21" s="112"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="70" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>94684426298</v>
+        <v>94012089344</v>
       </c>
       <c r="P21" s="49"/>
     </row>
@@ -16468,20 +16490,20 @@
       <c r="C22" s="112"/>
       <c r="D22" s="112"/>
       <c r="E22" s="112"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="84" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="80" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>8.106929830087737E-3</v>
+        <v>8.1649073577257907E-3</v>
       </c>
       <c r="P22" s="49"/>
     </row>
@@ -16491,20 +16513,20 @@
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
       <c r="E23" s="112"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="110" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="106" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="117">
+      <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.99189307016991224</v>
+        <v>0.99183509264227421</v>
       </c>
       <c r="P23" s="49"/>
     </row>
@@ -16514,18 +16536,18 @@
       <c r="C24" s="112"/>
       <c r="D24" s="112"/>
       <c r="E24" s="112"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="118" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="114"/>
       <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16534,19 +16556,19 @@
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
       <c r="E25" s="112"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="120">
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4832533735096176E-2</v>
-      </c>
-      <c r="O25" s="121"/>
+        <v>6.4299212998740737E-2</v>
+      </c>
+      <c r="O25" s="116"/>
       <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16555,15 +16577,15 @@
       <c r="C26" s="112"/>
       <c r="D26" s="112"/>
       <c r="E26" s="112"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
     </row>
@@ -16573,69 +16595,69 @@
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
       <c r="E27" s="112"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
     </row>
@@ -16676,526 +16698,526 @@
       <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="87"/>
+      <c r="L40" s="87"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="87"/>
+      <c r="O40" s="87"/>
+      <c r="P40" s="87"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="87"/>
+      <c r="O41" s="87"/>
+      <c r="P41" s="87"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="91"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="91"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="91"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="91"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="91"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="91"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="91"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="91"/>
-      <c r="M48" s="91"/>
-      <c r="N48" s="91"/>
-      <c r="O48" s="91"/>
-      <c r="P48" s="91"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="91"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="91"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="91"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="91"/>
-      <c r="L51" s="91"/>
-      <c r="M51" s="91"/>
-      <c r="N51" s="91"/>
-      <c r="O51" s="91"/>
-      <c r="P51" s="91"/>
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="91"/>
-      <c r="F52" s="91"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="91"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="91"/>
-      <c r="L52" s="91"/>
-      <c r="M52" s="91"/>
-      <c r="N52" s="91"/>
-      <c r="O52" s="91"/>
-      <c r="P52" s="91"/>
+      <c r="A52" s="87"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="91"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="91"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="91"/>
-      <c r="L53" s="91"/>
-      <c r="M53" s="91"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="91"/>
-      <c r="P53" s="91"/>
+      <c r="A53" s="87"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="91"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="87"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="91"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="91"/>
-      <c r="P55" s="91"/>
+      <c r="A55" s="87"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="91"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="91"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="91"/>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="91"/>
-      <c r="M56" s="91"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="91"/>
-      <c r="P56" s="91"/>
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="91"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="91"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="91"/>
-      <c r="L58" s="91"/>
-      <c r="M58" s="91"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="91"/>
-      <c r="P58" s="91"/>
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="91"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="91"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="91"/>
-      <c r="M59" s="91"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="91"/>
-      <c r="P59" s="91"/>
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="91"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="91"/>
-      <c r="G60" s="91"/>
-      <c r="H60" s="91"/>
-      <c r="I60" s="91"/>
-      <c r="J60" s="91"/>
-      <c r="K60" s="91"/>
-      <c r="L60" s="91"/>
-      <c r="M60" s="91"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="91"/>
-      <c r="P60" s="91"/>
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="87"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="87"/>
+      <c r="I60" s="87"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="87"/>
+      <c r="L60" s="87"/>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="91"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="91"/>
-      <c r="I61" s="91"/>
-      <c r="J61" s="91"/>
-      <c r="K61" s="91"/>
-      <c r="L61" s="91"/>
-      <c r="M61" s="91"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="91"/>
-      <c r="P61" s="91"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="87"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="87"/>
+      <c r="O61" s="87"/>
+      <c r="P61" s="87"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O62" s="49"/>

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C4F60-5CA9-A044-A0F0-FE7653405C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3EE7C-B20F-9746-ADA2-C83485AE183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1566,13 +1566,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1589,7 +1586,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1601,9 +1598,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1729,13 +1723,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>375.93</v>
+    <v>387.42</v>
     <v>282.20999999999998</v>
-    <v>0.45019999999999999</v>
-    <v>-1.76</v>
-    <v>-4.8479999999999999E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.45069999999999999</v>
+    <v>-8.39</v>
+    <v>-2.2256999999999999E-2</v>
+    <v>-3.57</v>
+    <v>-9.6860000000000002E-3</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -1743,25 +1737,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>365.66</v>
+    <v>377.74</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45225.991112974218</v>
+    <v>45240.022645902347</v>
     <v>0</v>
-    <v>360.02</v>
-    <v>93244489344</v>
+    <v>367.02010000000001</v>
+    <v>95017346000</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>362.03</v>
-    <v>28.062799999999999</v>
-    <v>363.04</v>
-    <v>361.28</v>
-    <v>361.28</v>
-    <v>258094800</v>
+    <v>377.33</v>
+    <v>27.662700000000001</v>
+    <v>376.96</v>
+    <v>368.57</v>
+    <v>365</v>
+    <v>257800000</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>942228</v>
-    <v>1101902</v>
+    <v>1207057</v>
+    <v>1278660</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -15688,8 +15682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07DD2A-8885-CF41-A195-3737F01D0334}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15738,7 +15732,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>93244489344</v>
+        <v>95017346000</v>
       </c>
       <c r="B3" s="42" t="s">
         <v>201</v>
@@ -15766,7 +15760,7 @@
       </c>
       <c r="I3" s="46">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>161708072886.94641</v>
+        <v>169420691329.74918</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
@@ -15804,21 +15798,21 @@
       </c>
       <c r="G4" s="54">
         <f>A5*(1+(5*G3))</f>
-        <v>260536434.39278027</v>
+        <v>260238845.51900601</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="56">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>138781350188.47372</v>
+        <v>145583922439.6619</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="45" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.8479999999999999E-3</v>
+        <v>-2.2256999999999999E-2</v>
       </c>
       <c r="L4" s="44" t="s">
         <v>212</v>
@@ -15833,7 +15827,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>258094800</v>
+        <v>257800000</v>
       </c>
       <c r="B5" s="51" t="s">
         <v>214</v>
@@ -15861,14 +15855,14 @@
       </c>
       <c r="I5" s="56">
         <f>I4+G5-G6</f>
-        <v>149250050188.47372</v>
+        <v>156052622439.6619</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="58" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>361.28</v>
+        <v>368.57</v>
       </c>
       <c r="L5" s="51" t="s">
         <v>219</v>
@@ -15886,7 +15880,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61">
         <f>O20/F10</f>
-        <v>9.4434362309094588</v>
+        <v>9.6229842009317395</v>
       </c>
       <c r="B6" s="51" t="s">
         <v>221</v>
@@ -15914,14 +15908,14 @@
       </c>
       <c r="I6" s="63">
         <f>N25</f>
-        <v>6.4299212998740737E-2</v>
+        <v>6.251017629618244E-2</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="64">
         <f>I5/G4</f>
-        <v>572.85673129105203</v>
+        <v>599.65153214709028</v>
       </c>
       <c r="L6" s="65" t="s">
         <v>225</v>
@@ -15939,14 +15933,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="68">
         <f>O20/F12</f>
-        <v>23.933390488706365</v>
+        <v>24.388435831622175</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="70">
         <f>F14/A3</f>
-        <v>4.2554793617466773E-2</v>
+        <v>4.176079597087462E-2</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>228</v>
@@ -15973,7 +15967,7 @@
       </c>
       <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>0.58563089927771284</v>
+        <v>0.62696782740616519</v>
       </c>
       <c r="L7" s="78" t="s">
         <v>231</v>
@@ -16278,7 +16272,7 @@
       </c>
       <c r="O14" s="96">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="49"/>
     </row>
@@ -16328,7 +16322,7 @@
       </c>
       <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.45019999999999999</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="P15" s="49"/>
     </row>
@@ -16383,7 +16377,7 @@
       </c>
       <c r="O17" s="107">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.4427120000000004E-2</v>
+        <v>6.2621244000000006E-2</v>
       </c>
       <c r="P17" s="49"/>
     </row>
@@ -16458,7 +16452,7 @@
       </c>
       <c r="O20" s="108" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>93244489344</v>
+        <v>95017346000</v>
       </c>
       <c r="P20" s="49"/>
     </row>
@@ -16480,7 +16474,7 @@
       </c>
       <c r="O21" s="108">
         <f>O19+O20</f>
-        <v>94012089344</v>
+        <v>95784946000</v>
       </c>
       <c r="P21" s="49"/>
     </row>
@@ -16503,7 +16497,7 @@
       </c>
       <c r="O22" s="109">
         <f>(O19/O21)</f>
-        <v>8.1649073577257907E-3</v>
+        <v>8.013785381264401E-3</v>
       </c>
       <c r="P22" s="49"/>
     </row>
@@ -16526,7 +16520,7 @@
       </c>
       <c r="O23" s="110">
         <f>O20/O21</f>
-        <v>0.99183509264227421</v>
+        <v>0.9919862146187356</v>
       </c>
       <c r="P23" s="49"/>
     </row>
@@ -16566,7 +16560,7 @@
       <c r="M25" s="87"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4299212998740737E-2</v>
+        <v>6.251017629618244E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="49"/>

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3EE7C-B20F-9746-ADA2-C83485AE183B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED403E-F912-5548-9D70-49CDC1AFED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1187,24 +1142,213 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1358,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1290,248 +1456,261 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,7 +1765,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1725,11 +1904,11 @@
     <v>Powered by Refinitiv</v>
     <v>387.42</v>
     <v>282.20999999999998</v>
-    <v>0.45069999999999999</v>
-    <v>-8.39</v>
-    <v>-2.2256999999999999E-2</v>
-    <v>-3.57</v>
-    <v>-9.6860000000000002E-3</v>
+    <v>0.40949999999999998</v>
+    <v>3.96</v>
+    <v>1.1410999999999999E-2</v>
+    <v>4.43</v>
+    <v>1.2621E-2</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -1737,25 +1916,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>377.74</v>
+    <v>353.6</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45240.022645902347</v>
+    <v>45259.910660983594</v>
     <v>0</v>
-    <v>367.02010000000001</v>
-    <v>95017346000</v>
+    <v>346.68</v>
+    <v>90446803200</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>377.33</v>
-    <v>27.662700000000001</v>
-    <v>376.96</v>
-    <v>368.57</v>
-    <v>365</v>
-    <v>257800000</v>
+    <v>347.5</v>
+    <v>26.344000000000001</v>
+    <v>347.04</v>
+    <v>351</v>
+    <v>355.43</v>
+    <v>257683200</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>1207057</v>
-    <v>1278660</v>
+    <v>1497318</v>
+    <v>1387156</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -1920,9 +2099,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2367,9 +2546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A147" workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K36" sqref="K36:N36"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12589,8 +12768,8 @@
       <c r="N172" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="4" t="s">
-        <v>24</v>
+      <c r="O172" s="4">
+        <v>0</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>24</v>
@@ -15673,454 +15852,475 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A37:S95 A2:S2 A9:S11 A13:S13 A191:S195 A96:N96 Q96 A97:S128 A130:S142 A144:S187 A188:C188 K188:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A4:S7 A15:S16 A19:S33 A37:S95 A2:S2 A9:S11 A13:S13 A191:S195 A96:N96 Q96 A97:S128 A130:S142 A144:S171 A188:C188 K188:S188 A173:S187 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC07DD2A-8885-CF41-A195-3737F01D0334}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:18" s="51" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" cm="1">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+    </row>
+    <row r="2" spans="1:18" s="51" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>95017346000</v>
-      </c>
-      <c r="B3" s="42" t="s">
+        <v>90446803200</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="56">
         <f>Financials!O8*0.01</f>
         <v>0.87919999999999998</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="56">
         <f>SUM(C11:E11)/3</f>
         <v>0.29678738032920426</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="58">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>1.8920446229682142E-3</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="46">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>169420691329.74918</v>
-      </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="59">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>182052629562.88242</v>
+      </c>
+      <c r="J3" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="119" t="s">
+      <c r="K3" s="61">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="108" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="49"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="O3" s="109"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>10468700000</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="43">
         <f>Financials!O17*0.01</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="43">
         <f>SUM(C13:E13)/3</f>
         <v>0.52877966874916127</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="54">
+      <c r="G4" s="66">
         <f>A5*(1+(5*G3))</f>
-        <v>260238845.51900601</v>
-      </c>
-      <c r="H4" s="55" t="s">
+        <v>260120940.5649462</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="56">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>145583922439.6619</v>
-      </c>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="42">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>156727819795.08301</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="45" cm="1">
+      <c r="K4" s="67" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-2.2256999999999999E-2</v>
-      </c>
-      <c r="L4" s="44" t="s">
+        <v>1.1410999999999999E-2</v>
+      </c>
+      <c r="L4" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="121" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="110" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="122"/>
-      <c r="P4" s="49"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" cm="1">
+      <c r="O4" s="111"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>257800000</v>
-      </c>
-      <c r="B5" s="51" t="s">
+        <v>257683200</v>
+      </c>
+      <c r="B5" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="57">
-        <f>Financials!O34*0.01</f>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="43">
+        <f>F14</f>
+        <v>0.39457160218756332</v>
+      </c>
+      <c r="D5" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="52">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="43">
+        <f>SUM(C16:E16)/3</f>
         <v>0.46447590556665563</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="66">
         <f>Financials!O56</f>
         <v>11236300000</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>156052622439.6619</v>
-      </c>
-      <c r="J5" s="53" t="s">
+        <v>167196519795.08301</v>
+      </c>
+      <c r="J5" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="58" cm="1">
+      <c r="K5" s="70" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>368.57</v>
-      </c>
-      <c r="L5" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="L5" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="59" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="113">
         <f>Financials!O21</f>
         <v>47900000</v>
       </c>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72">
         <f>O20/F10</f>
-        <v>9.6229842009317395</v>
-      </c>
-      <c r="B6" s="51" t="s">
+        <v>9.1600975491188983</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="52">
-        <f>Financials!O190</f>
-        <v>0.41200730699631771</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="43">
+        <f>F17</f>
+        <v>0.40186347984606036</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="43">
         <f>Financials!O33/Financials!O126</f>
         <v>0.21750850021331333</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="66">
         <f>Financials!O96+Financials!O105</f>
         <v>767600000</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="67">
         <f>N25</f>
-        <v>6.251017629618244E-2</v>
-      </c>
-      <c r="J6" s="55" t="s">
+        <v>5.9907488099780137E-2</v>
+      </c>
+      <c r="J6" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="44">
         <f>I5/G4</f>
-        <v>599.65153214709028</v>
-      </c>
-      <c r="L6" s="65" t="s">
+        <v>642.76455187327713</v>
+      </c>
+      <c r="L6" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="49"/>
-      <c r="N6" s="66" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="113">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="49"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
         <f>O20/F12</f>
-        <v>24.388435831622175</v>
-      </c>
-      <c r="B7" s="69" t="s">
+        <v>23.215298562628337</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="70">
-        <f>F14/A3</f>
-        <v>4.176079597087462E-2</v>
-      </c>
-      <c r="D7" s="71" t="s">
+      <c r="C7" s="76">
+        <f>F15/A3</f>
+        <v>4.3871091731410135E-2</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="77">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.20653198093337768</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="78">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>4.9617975203940477E-2</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="80">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="82">
         <f>K6/K5-1</f>
-        <v>0.62696782740616519</v>
-      </c>
-      <c r="L7" s="78" t="s">
+        <v>0.83123803952500608</v>
+      </c>
+      <c r="L7" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="66" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="113">
         <f>Financials!O105</f>
         <v>767600000</v>
       </c>
-      <c r="P7" s="49"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="80" t="s">
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="115">
         <f>O5/(O6+O7)</f>
         <v>6.2402292860865037E-2</v>
       </c>
-      <c r="P8" s="49"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83">
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85">
         <v>2019</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="85">
         <v>2020</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="85">
         <v>2021</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="86">
         <v>2022</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="87">
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="88">
         <v>2024</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="88">
         <v>2025</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="88">
         <v>2026</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="89">
         <v>2027</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="66" t="s">
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="112" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="67">
+      <c r="O9" s="113">
         <f>Financials!O25</f>
         <v>941300000</v>
       </c>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="89">
+      <c r="B10" s="91">
         <v>4162821000</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="91">
         <v>6205683000</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="91">
         <v>7574400000</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="92">
         <v>8930700000</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="91">
         <v>9874000000</v>
       </c>
-      <c r="G10" s="89">
+      <c r="G10" s="91">
         <v>10505000000</v>
       </c>
-      <c r="H10" s="89">
+      <c r="H10" s="91">
         <v>11398000000</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="91">
         <v>12533000000</v>
       </c>
-      <c r="J10" s="89">
+      <c r="J10" s="92">
         <v>13736000000</v>
       </c>
-      <c r="K10" s="91" t="s">
+      <c r="K10" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="67">
+      <c r="O10" s="113">
         <f>Financials!O24</f>
         <v>4306200000</v>
       </c>
-      <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="94"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.49073981321800764</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="47">
         <f t="shared" si="0"/>
         <v>0.22055863955667743</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="47">
         <f t="shared" si="0"/>
         <v>0.17906368821292773</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="48">
         <f t="shared" si="0"/>
         <v>0.10562441913847742</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="47">
         <f t="shared" si="0"/>
         <v>6.390520559043944E-2</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>8.5007139457401237E-2</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="47">
         <f t="shared" si="0"/>
         <v>9.9578873486576569E-2</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="95">
         <f t="shared" si="0"/>
         <v>9.5986595388175111E-2</v>
       </c>
@@ -16128,94 +16328,98 @@
         <f>SUM(F11:J11)/5</f>
         <v>9.002044661221395E-2</v>
       </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="66" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="116">
         <f>O9/O10</f>
         <v>0.21859179787283453</v>
       </c>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="91">
         <v>1176810000</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="91">
         <v>2711647000</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="91">
         <v>2342100000</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="91">
         <v>3322000000</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="96">
         <v>3896000000</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="91">
         <v>4198000000</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="91">
         <v>4500000000</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="91">
         <v>5020000000</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="92">
         <v>5560000000</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="97" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="116">
         <f>O8*(1-O11)</f>
         <v>4.8761663473021397E-2</v>
       </c>
-      <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="94"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>1.3042351781511035</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="47">
         <f t="shared" si="1"/>
         <v>-0.13628138175802385</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="47">
         <f t="shared" si="1"/>
         <v>0.41838520985440408</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="48">
         <f t="shared" si="1"/>
         <v>0.17278747742323897</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="47">
         <f t="shared" si="1"/>
         <v>7.7515400410677726E-2</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="47">
         <f t="shared" si="1"/>
         <v>7.1939018580276404E-2</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="47">
         <f t="shared" si="1"/>
         <v>0.11555555555555563</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="95">
         <f t="shared" si="1"/>
         <v>0.10756972111553775</v>
       </c>
@@ -16223,1195 +16427,1352 @@
         <f>SUM(F13:J13)/5</f>
         <v>0.10907343461705729</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="121" t="s">
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="122"/>
-      <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
+      <c r="O13" s="111"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="107" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="98">
+        <f>B12/B10</f>
+        <v>0.28269531646928847</v>
+      </c>
+      <c r="C14" s="98">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.43696189444417316</v>
+      </c>
+      <c r="D14" s="98">
+        <f t="shared" si="2"/>
+        <v>0.30921261089987323</v>
+      </c>
+      <c r="E14" s="98">
+        <f t="shared" si="2"/>
+        <v>0.37197532108345371</v>
+      </c>
+      <c r="F14" s="99">
+        <f t="shared" si="2"/>
+        <v>0.39457160218756332</v>
+      </c>
+      <c r="G14" s="98">
+        <f t="shared" si="2"/>
+        <v>0.39961922893860069</v>
+      </c>
+      <c r="H14" s="98">
+        <f t="shared" si="2"/>
+        <v>0.39480610633444463</v>
+      </c>
+      <c r="I14" s="98">
+        <f t="shared" si="2"/>
+        <v>0.40054256762147927</v>
+      </c>
+      <c r="J14" s="100">
+        <f t="shared" si="2"/>
+        <v>0.40477577169481654</v>
+      </c>
+      <c r="K14" s="100"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="112" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="116">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="89">
+      <c r="B15" s="91">
         <v>1543233650</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C15" s="91">
         <v>3044298981</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D15" s="91">
         <v>2461253864</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E15" s="91">
         <v>3968212381</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F15" s="96">
         <v>3968000000</v>
       </c>
-      <c r="G14" s="89">
+      <c r="G15" s="91">
         <v>4269000000</v>
       </c>
-      <c r="H14" s="89">
+      <c r="H15" s="91">
         <v>4880000000</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I15" s="91">
         <v>5491000000</v>
       </c>
-      <c r="J14" s="89">
+      <c r="J15" s="92">
         <v>6200000000</v>
       </c>
-      <c r="K14" s="91" t="s">
+      <c r="K15" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="66" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="96">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="49"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="117" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="101"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.97267535022969454</v>
       </c>
-      <c r="D15" s="93">
-        <f t="shared" si="2"/>
+      <c r="D16" s="47">
+        <f t="shared" si="3"/>
         <v>-0.19152032065144919</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="2"/>
+      <c r="E16" s="47">
+        <f t="shared" si="3"/>
         <v>0.61227268712172145</v>
       </c>
-      <c r="F15" s="94">
-        <f t="shared" si="2"/>
+      <c r="F16" s="48">
+        <f t="shared" si="3"/>
         <v>-5.3520572894982799E-5</v>
       </c>
-      <c r="G15" s="93">
-        <f t="shared" si="2"/>
+      <c r="G16" s="47">
+        <f t="shared" si="3"/>
         <v>7.5856854838709742E-2</v>
       </c>
-      <c r="H15" s="93">
-        <f t="shared" si="2"/>
+      <c r="H16" s="47">
+        <f t="shared" si="3"/>
         <v>0.14312485359568994</v>
       </c>
-      <c r="I15" s="93">
-        <f t="shared" si="2"/>
+      <c r="I16" s="47">
+        <f t="shared" si="3"/>
         <v>0.12520491803278699</v>
       </c>
-      <c r="J15" s="93">
-        <f t="shared" si="2"/>
+      <c r="J16" s="95">
+        <f t="shared" si="3"/>
         <v>0.12912037880167548</v>
       </c>
-      <c r="K15" s="95">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="95">
+        <f>SUM(F16:J16)/5</f>
         <v>9.4650696939193438E-2</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="100" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.45069999999999999</v>
-      </c>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="112" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="116">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="98">
+        <f>B15/B10</f>
+        <v>0.37071823410134619</v>
+      </c>
+      <c r="C17" s="98">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.49056630527211914</v>
+      </c>
+      <c r="D17" s="98">
+        <f t="shared" si="4"/>
+        <v>0.32494373996620196</v>
+      </c>
+      <c r="E17" s="100">
+        <f t="shared" si="4"/>
+        <v>0.44433385748037668</v>
+      </c>
+      <c r="F17" s="98">
+        <f t="shared" si="4"/>
+        <v>0.40186347984606036</v>
+      </c>
+      <c r="G17" s="98">
+        <f t="shared" si="4"/>
+        <v>0.40637791527843886</v>
+      </c>
+      <c r="H17" s="98">
+        <f t="shared" si="4"/>
+        <v>0.42814528864713108</v>
+      </c>
+      <c r="I17" s="98">
+        <f t="shared" si="4"/>
+        <v>0.43812335434453042</v>
+      </c>
+      <c r="J17" s="100">
+        <f t="shared" si="4"/>
+        <v>0.45136866627839256</v>
+      </c>
+      <c r="K17" s="100"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="119">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>6.0002079999999999E-2</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B18" s="103">
         <v>0.13469761574490491</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C18" s="103">
         <v>0.23113586750763232</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D18" s="103">
         <v>0.19472420494039389</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="103">
         <v>0.22620684413798822</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="66" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="96">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="107">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.2621244000000006E-2</v>
-      </c>
-      <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="121" t="s">
+      <c r="F18" s="104"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="122"/>
-      <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="112" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Biotechnology &amp; Medical Research</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="123" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1989</v>
-      </c>
-      <c r="D19" s="123"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="66" t="s">
+      <c r="O18" s="111"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="108">
+      <c r="O19" s="120">
         <f>O6+O7</f>
         <v>767600000</v>
       </c>
-      <c r="P19" s="49"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="120" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>90446803200</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Biotechnology &amp; Medical Research</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1989</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="112" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="120">
+        <f>O19+O20</f>
+        <v>91214403200</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
       </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="108" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>95017346000</v>
-      </c>
-      <c r="P20" s="49"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="108">
-        <f>O19+O20</f>
-        <v>95784946000</v>
-      </c>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="80" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="114" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="121">
         <f>(O19/O21)</f>
-        <v>8.013785381264401E-3</v>
-      </c>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="106" t="s">
+        <v>8.4153376338705239E-3</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="110">
+      <c r="O23" s="122">
         <f>O20/O21</f>
-        <v>0.9919862146187356</v>
-      </c>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="113" t="s">
+        <v>0.99158466236612952</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="115">
+      <c r="O24" s="124"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="125">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.251017629618244E-2</v>
-      </c>
-      <c r="O25" s="116"/>
-      <c r="P25" s="49"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="112"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
+        <v>5.9907488099780137E-2</v>
+      </c>
+      <c r="O25" s="126"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="49"/>
-      <c r="P70" s="49"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="49"/>
-      <c r="P77" s="49"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="49"/>
-      <c r="P78" s="49"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="49"/>
-      <c r="P79" s="49"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="49"/>
-      <c r="P81" s="49"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="49"/>
-      <c r="P82" s="49"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="49"/>
-      <c r="P83" s="49"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="49"/>
-      <c r="P86" s="49"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="49"/>
-      <c r="P87" s="49"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="49"/>
-      <c r="P89" s="49"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="49"/>
-      <c r="P90" s="49"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="49"/>
-      <c r="P91" s="49"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="49"/>
-      <c r="P92" s="49"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="49"/>
-      <c r="P93" s="49"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="49"/>
-      <c r="P95" s="49"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="49"/>
-      <c r="P96" s="49"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="49"/>
-      <c r="P97" s="49"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="49"/>
-      <c r="P98" s="49"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="49"/>
-      <c r="P99" s="49"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="49"/>
-      <c r="P100" s="49"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="49"/>
-      <c r="P101" s="49"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="49"/>
-      <c r="P102" s="49"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="49"/>
-      <c r="P103" s="49"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="49"/>
-      <c r="P104" s="49"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="49"/>
-      <c r="P105" s="49"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="49"/>
-      <c r="P106" s="49"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="49"/>
-      <c r="P107" s="49"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="49"/>
-      <c r="P108" s="49"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="49"/>
-      <c r="P109" s="49"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="49"/>
-      <c r="P110" s="49"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17419,8 +17780,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:VRTX/explorer/revenue_proj" xr:uid="{F3C0BCFE-8AAF-AB4A-922B-4CED1D648A56}"/>

--- a/Healthcare/Vertex Pharmaceuticals.xlsx
+++ b/Healthcare/Vertex Pharmaceuticals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14ED403E-F912-5548-9D70-49CDC1AFED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74868E8B-8402-1448-AA56-0171FEB11B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1478,21 +1478,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1655,18 +1640,6 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1712,6 +1685,33 @@
     <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1743,11 +1743,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1765,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1777,6 +1780,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1904,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>387.42</v>
     <v>282.20999999999998</v>
-    <v>0.40949999999999998</v>
-    <v>3.96</v>
-    <v>1.1410999999999999E-2</v>
-    <v>4.43</v>
-    <v>1.2621E-2</v>
+    <v>0.38340000000000002</v>
+    <v>-3.8</v>
+    <v>-1.0736000000000001E-2</v>
+    <v>0.55000000000000004</v>
+    <v>1.5709999999999999E-3</v>
     <v>USD</v>
     <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
     <v>4800</v>
@@ -1916,25 +1922,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>50 Northern Avenue, BOSTON, MA, 02210 US</v>
-    <v>353.6</v>
+    <v>354.35</v>
     <v>Biotechnology &amp; Medical Research</v>
     <v>Stock</v>
-    <v>45259.910660983594</v>
+    <v>45269.041230798437</v>
     <v>0</v>
-    <v>346.68</v>
-    <v>90446803200</v>
+    <v>348.46</v>
+    <v>90227772480</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED</v>
-    <v>347.5</v>
-    <v>26.344000000000001</v>
-    <v>347.04</v>
-    <v>351</v>
-    <v>355.43</v>
+    <v>354</v>
+    <v>26.5654</v>
+    <v>353.95</v>
+    <v>350.15</v>
+    <v>350.7</v>
     <v>257683200</v>
     <v>VRTX</v>
     <v>VERTEX PHARMACEUTICALS INCORPORATED (XNAS:VRTX)</v>
-    <v>1497318</v>
-    <v>1387156</v>
+    <v>1394568</v>
+    <v>1474477</v>
     <v>1989</v>
   </rv>
   <rv s="2">
@@ -2099,9 +2105,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15862,7 +15868,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15870,196 +15876,196 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="51" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="e" vm="1">
+    <row r="1" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="118" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-    </row>
-    <row r="2" spans="1:18" s="51" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+    </row>
+    <row r="2" spans="1:18" s="119" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" cm="1">
+      <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>90446803200</v>
-      </c>
-      <c r="B3" s="55" t="s">
+        <v>90227772480</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="51">
         <f>Financials!O8*0.01</f>
         <v>0.87919999999999998</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="51">
         <f>SUM(C11:E11)/3</f>
         <v>0.29678738032920426</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="53">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>1.8920446229682142E-3</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="54">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>182052629562.88242</v>
-      </c>
-      <c r="J3" s="60" t="s">
+        <v>195292110681.25275</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="56">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="57" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="41"/>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="120" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="109"/>
+      <c r="O3" s="121"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="58">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>10468700000</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="43">
         <f>Financials!O17*0.01</f>
         <v>0.47039999999999998</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="59" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="43">
         <f>SUM(C13:E13)/3</f>
         <v>0.52877966874916127</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="61">
         <f>A5*(1+(5*G3))</f>
         <v>260120940.5649462</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="60" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="42">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>156727819795.08301</v>
-      </c>
-      <c r="J4" s="65" t="s">
+        <v>168410434852.47479</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="67" cm="1">
+      <c r="K4" s="62" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.1410999999999999E-2</v>
-      </c>
-      <c r="L4" s="68" t="s">
+        <v>-1.0736000000000001E-2</v>
+      </c>
+      <c r="L4" s="63" t="s">
         <v>212</v>
       </c>
       <c r="M4" s="41"/>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="111"/>
+      <c r="O4" s="123"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" cm="1">
+      <c r="A5" s="58" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>257683200</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="59" t="s">
         <v>214</v>
       </c>
       <c r="C5" s="43">
         <f>F14</f>
         <v>0.39457160218756332</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="43">
         <f>SUM(C16:E16)/3</f>
         <v>0.46447590556665563</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="61">
         <f>Financials!O56</f>
         <v>11236300000</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="60" t="s">
         <v>217</v>
       </c>
       <c r="I5" s="42">
         <f>I4+G5-G6</f>
-        <v>167196519795.08301</v>
-      </c>
-      <c r="J5" s="65" t="s">
+        <v>178879134852.47479</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="70" cm="1">
+      <c r="K5" s="65" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>351</v>
-      </c>
-      <c r="L5" s="71" t="s">
+        <v>350.15</v>
+      </c>
+      <c r="L5" s="66" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="41"/>
-      <c r="N5" s="112" t="s">
+      <c r="N5" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="113">
+      <c r="O5" s="104">
         <f>Financials!O21</f>
         <v>47900000</v>
       </c>
@@ -16068,53 +16074,53 @@
       <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72">
+      <c r="A6" s="67">
         <f>O20/F10</f>
-        <v>9.1600975491188983</v>
-      </c>
-      <c r="B6" s="64" t="s">
+        <v>9.1379149767065027</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>221</v>
       </c>
       <c r="C6" s="43">
         <f>F17</f>
         <v>0.40186347984606036</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="64" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="43">
         <f>Financials!O33/Financials!O126</f>
         <v>0.21750850021331333</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="61">
         <f>Financials!O96+Financials!O105</f>
         <v>767600000</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="62">
         <f>N25</f>
-        <v>5.9907488099780137E-2</v>
-      </c>
-      <c r="J6" s="65" t="s">
+        <v>5.7540997062458674E-2</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="44">
         <f>I5/G4</f>
-        <v>642.76455187327713</v>
-      </c>
-      <c r="L6" s="73" t="s">
+        <v>687.67679550894445</v>
+      </c>
+      <c r="L6" s="68" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="41"/>
-      <c r="N6" s="112" t="s">
+      <c r="N6" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="113">
+      <c r="O6" s="104">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
@@ -16123,52 +16129,52 @@
       <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+      <c r="A7" s="69">
         <f>O20/F12</f>
-        <v>23.215298562628337</v>
-      </c>
-      <c r="B7" s="75" t="s">
+        <v>23.159079178644763</v>
+      </c>
+      <c r="B7" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="71">
         <f>F15/A3</f>
-        <v>4.3871091731410135E-2</v>
-      </c>
-      <c r="D7" s="75" t="s">
+        <v>4.3977590169141677E-2</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="72">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.20653198093337768</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="73">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>4.9617975203940477E-2</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="75">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="77">
         <f>K6/K5-1</f>
-        <v>0.83123803952500608</v>
-      </c>
-      <c r="L7" s="83" t="s">
+        <v>0.96394915181763396</v>
+      </c>
+      <c r="L7" s="78" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="41"/>
-      <c r="N7" s="112" t="s">
+      <c r="N7" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="113">
+      <c r="O7" s="104">
         <f>Financials!O105</f>
         <v>767600000</v>
       </c>
@@ -16190,10 +16196,10 @@
       <c r="K8" s="41"/>
       <c r="L8" s="41"/>
       <c r="M8" s="41"/>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="115">
+      <c r="O8" s="106">
         <f>O5/(O6+O7)</f>
         <v>6.2402292860865037E-2</v>
       </c>
@@ -16202,41 +16208,41 @@
       <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80">
         <v>2019</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="80">
         <v>2020</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="80">
         <v>2021</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="81">
         <v>2022</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="82">
         <v>2023</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="83">
         <v>2024</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="83">
         <v>2025</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="83">
         <v>2026</v>
       </c>
-      <c r="J9" s="89">
+      <c r="J9" s="84">
         <v>2027</v>
       </c>
       <c r="K9" s="46"/>
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
-      <c r="N9" s="112" t="s">
+      <c r="N9" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="113">
+      <c r="O9" s="104">
         <f>Financials!O25</f>
         <v>941300000</v>
       </c>
@@ -16245,43 +16251,43 @@
       <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="86">
         <v>4162821000</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="86">
         <v>6205683000</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="86">
         <v>7574400000</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="87">
         <v>8930700000</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="86">
         <v>9874000000</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="86">
         <v>10505000000</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="86">
         <v>11398000000</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="86">
         <v>12533000000</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="87">
         <v>13736000000</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="112" t="s">
+      <c r="N10" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="113">
+      <c r="O10" s="104">
         <f>Financials!O24</f>
         <v>4306200000</v>
       </c>
@@ -16290,7 +16296,7 @@
       <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="94"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16320,20 +16326,20 @@
         <f t="shared" si="0"/>
         <v>9.9578873486576569E-2</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="90">
         <f t="shared" si="0"/>
         <v>9.5986595388175111E-2</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="90">
         <f>SUM(F11:J11)/5</f>
         <v>9.002044661221395E-2</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="46"/>
-      <c r="N11" s="112" t="s">
+      <c r="N11" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="116">
+      <c r="O11" s="107">
         <f>O9/O10</f>
         <v>0.21859179787283453</v>
       </c>
@@ -16342,45 +16348,45 @@
       <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="86">
         <v>1176810000</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="86">
         <v>2711647000</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="86">
         <v>2342100000</v>
       </c>
-      <c r="E12" s="91">
+      <c r="E12" s="86">
         <v>3322000000</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="91">
         <v>3896000000</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="86">
         <v>4198000000</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="86">
         <v>4500000000</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="86">
         <v>5020000000</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="87">
         <v>5560000000</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="92" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="46"/>
-      <c r="N12" s="112" t="s">
+      <c r="N12" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="116">
+      <c r="O12" s="107">
         <f>O8*(1-O11)</f>
         <v>4.8761663473021397E-2</v>
       </c>
@@ -16389,7 +16395,7 @@
       <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="94"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16419,127 +16425,127 @@
         <f t="shared" si="1"/>
         <v>0.11555555555555563</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="90">
         <f t="shared" si="1"/>
         <v>0.10756972111553775</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="90">
         <f>SUM(F13:J13)/5</f>
         <v>0.10907343461705729</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="46"/>
-      <c r="N13" s="110" t="s">
+      <c r="N13" s="122" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="111"/>
+      <c r="O13" s="123"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="98">
+      <c r="B14" s="93">
         <f>B12/B10</f>
         <v>0.28269531646928847</v>
       </c>
-      <c r="C14" s="98">
+      <c r="C14" s="93">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.43696189444417316</v>
       </c>
-      <c r="D14" s="98">
+      <c r="D14" s="93">
         <f t="shared" si="2"/>
         <v>0.30921261089987323</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="93">
         <f t="shared" si="2"/>
         <v>0.37197532108345371</v>
       </c>
-      <c r="F14" s="99">
+      <c r="F14" s="94">
         <f t="shared" si="2"/>
         <v>0.39457160218756332</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="93">
         <f t="shared" si="2"/>
         <v>0.39961922893860069</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="93">
         <f t="shared" si="2"/>
         <v>0.39480610633444463</v>
       </c>
-      <c r="I14" s="98">
+      <c r="I14" s="93">
         <f t="shared" si="2"/>
         <v>0.40054256762147927</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="95">
         <f t="shared" si="2"/>
         <v>0.40477577169481654</v>
       </c>
-      <c r="K14" s="100"/>
+      <c r="K14" s="95"/>
       <c r="L14" s="46"/>
       <c r="M14" s="46"/>
-      <c r="N14" s="112" t="s">
+      <c r="N14" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="116">
+      <c r="O14" s="107">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="86">
         <v>1543233650</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="86">
         <v>3044298981</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="86">
         <v>2461253864</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="86">
         <v>3968212381</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="91">
         <v>3968000000</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="86">
         <v>4269000000</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="86">
         <v>4880000000</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="86">
         <v>5491000000</v>
       </c>
-      <c r="J15" s="92">
+      <c r="J15" s="87">
         <v>6200000000</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="92" t="s">
         <v>241</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="46"/>
-      <c r="N15" s="112" t="s">
+      <c r="N15" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="117" cm="1">
+      <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.40949999999999998</v>
+        <v>0.38340000000000002</v>
       </c>
       <c r="P15" s="41"/>
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+      <c r="A16" s="96"/>
       <c r="B16" s="47"/>
       <c r="C16" s="47">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16569,20 +16575,20 @@
         <f t="shared" si="3"/>
         <v>0.12520491803278699</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="90">
         <f t="shared" si="3"/>
         <v>0.12912037880167548</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="90">
         <f>SUM(F16:J16)/5</f>
         <v>9.4650696939193438E-2</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="46"/>
-      <c r="N16" s="112" t="s">
+      <c r="N16" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="116">
+      <c r="O16" s="107">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="41"/>
@@ -16590,87 +16596,87 @@
       <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="98">
+      <c r="B17" s="93">
         <f>B15/B10</f>
         <v>0.37071823410134619</v>
       </c>
-      <c r="C17" s="98">
+      <c r="C17" s="93">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.49056630527211914</v>
       </c>
-      <c r="D17" s="98">
+      <c r="D17" s="93">
         <f t="shared" si="4"/>
         <v>0.32494373996620196</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="95">
         <f t="shared" si="4"/>
         <v>0.44433385748037668</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="93">
         <f t="shared" si="4"/>
         <v>0.40186347984606036</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="93">
         <f t="shared" si="4"/>
         <v>0.40637791527843886</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="93">
         <f t="shared" si="4"/>
         <v>0.42814528864713108</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="93">
         <f t="shared" si="4"/>
         <v>0.43812335434453042</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="95">
         <f t="shared" si="4"/>
         <v>0.45136866627839256</v>
       </c>
-      <c r="K17" s="100"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="46"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="118" t="s">
+      <c r="N17" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="119">
+      <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>6.0002079999999999E-2</v>
+        <v>5.7615686000000006E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="103">
+      <c r="B18" s="98">
         <v>0.13469761574490491</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C18" s="98">
         <v>0.23113586750763232</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="98">
         <v>0.19472420494039389</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E18" s="98">
         <v>0.22620684413798822</v>
       </c>
-      <c r="F18" s="104"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="106"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
-      <c r="N18" s="110" t="s">
+      <c r="N18" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="111"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -16689,10 +16695,10 @@
       <c r="K19" s="46"/>
       <c r="L19" s="46"/>
       <c r="M19" s="46"/>
-      <c r="N19" s="112" t="s">
+      <c r="N19" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="120">
+      <c r="O19" s="111">
         <f>O6+O7</f>
         <v>767600000</v>
       </c>
@@ -16714,29 +16720,29 @@
       <c r="K20" s="46"/>
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
-      <c r="N20" s="112" t="s">
+      <c r="N20" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="120" cm="1">
+      <c r="O20" s="111" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>90446803200</v>
+        <v>90227772480</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="str" cm="1">
+      <c r="A21" s="125" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Biotechnology &amp; Medical Research</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="126" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1989</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="49"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
@@ -16744,26 +16750,26 @@
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
       <c r="M21" s="46"/>
-      <c r="N21" s="112" t="s">
+      <c r="N21" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="120">
+      <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>91214403200</v>
+        <v>90995372480</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52" t="str" cm="1">
+      <c r="A22" s="124" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Vertex Pharmaceuticals Incorporated is a global biotechnology company. The Company is focused on developing medicines that treat the underlying cause of cystic fibrosis (CF). Its pipeline includes mid- and late-stage clinical programs in sickle cell disease, beta thalassemia, acute and neuropathic pain, APOL1-mediated kidney disease, type 1 diabetes, and alpha-1 antitrypsin deficiency, and earlier-stage programs in diseases such as muscular dystrophies. Its marketed medicines are TRIKAFTA/KAFTRIO (elexacaftor/tezacaftor/ivacaftor and ivacaftor), SYMDEKO/SYMKEVI (tezacaftor/ivacaftor and ivacaftor), ORKAMBI (lumacaftor/ivacaftor) and KALYDECO (ivacaftor). The Company has a pipeline of investigational small molecule, cell and genetic therapies in other serious diseases where it has deep insight into causal human biology, including sickle cell disease, beta thalassemia, APOL1-mediated kidney disease, pain, type 1 diabetes, alpha-1 antitrypsin deficiency and Duchenne muscular dystrophy.</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -16772,23 +16778,23 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="46"/>
-      <c r="N22" s="114" t="s">
+      <c r="N22" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="121">
+      <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>8.4153376338705239E-3</v>
+        <v>8.4355938008684114E-3</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -16797,23 +16803,23 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="46"/>
-      <c r="N23" s="118" t="s">
+      <c r="N23" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="122">
+      <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.99158466236612952</v>
+        <v>0.99156440619913155</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -16822,20 +16828,20 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="46"/>
-      <c r="N24" s="123" t="s">
+      <c r="N24" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="124"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="41"/>
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
@@ -16844,21 +16850,21 @@
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
       <c r="M25" s="46"/>
-      <c r="N25" s="125">
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>5.9907488099780137E-2</v>
-      </c>
-      <c r="O25" s="126"/>
+        <v>5.7540997062458674E-2</v>
+      </c>
+      <c r="O25" s="117"/>
       <c r="P25" s="41"/>
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
@@ -16874,11 +16880,11 @@
       <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="46"/>
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
@@ -16894,11 +16900,11 @@
       <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
       <c r="F28" s="46"/>
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
@@ -16914,11 +16920,11 @@
       <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
@@ -16934,11 +16940,11 @@
       <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
@@ -17780,9 +17786,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A22:E30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:VRTX/explorer/revenue_proj" xr:uid="{F3C0BCFE-8AAF-AB4A-922B-4CED1D648A56}"/>
